--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9530736666666667</v>
+        <v>1.129676333333334</v>
       </c>
       <c r="H2">
-        <v>2.859221</v>
+        <v>3.389029</v>
       </c>
       <c r="I2">
-        <v>0.1807309093159361</v>
+        <v>0.2150318133641351</v>
       </c>
       <c r="J2">
-        <v>0.1826665348894544</v>
+        <v>0.2164143620767121</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +558,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.041056</v>
+        <v>0.014278</v>
       </c>
       <c r="N2">
-        <v>0.123168</v>
+        <v>0.042834</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.08545683615785395</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.109974299791266</v>
       </c>
       <c r="Q2">
-        <v>0.03912939245866667</v>
+        <v>0.01612951868733334</v>
       </c>
       <c r="R2">
-        <v>0.352164532128</v>
+        <v>0.145165668186</v>
       </c>
       <c r="S2">
-        <v>0.1807309093159361</v>
+        <v>0.01837593844338512</v>
       </c>
       <c r="T2">
-        <v>0.1826665348894544</v>
+        <v>0.02380001793415993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.874459333333334</v>
+        <v>1.129676333333334</v>
       </c>
       <c r="H3">
-        <v>11.623378</v>
+        <v>3.389029</v>
       </c>
       <c r="I3">
-        <v>0.734711893646153</v>
+        <v>0.2150318133641351</v>
       </c>
       <c r="J3">
-        <v>0.7425806480052842</v>
+        <v>0.2164143620767121</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.123168</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2457288041250071</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3162281028316444</v>
       </c>
       <c r="Q3">
-        <v>0.1590698023893334</v>
+        <v>0.04637999154133334</v>
       </c>
       <c r="R3">
-        <v>1.431628221504</v>
+        <v>0.4174199238720001</v>
       </c>
       <c r="S3">
-        <v>0.734711893646153</v>
+        <v>0.05283951034680064</v>
       </c>
       <c r="T3">
-        <v>0.7425806480052842</v>
+        <v>0.06843630314503922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.076251</v>
+        <v>1.129676333333334</v>
       </c>
       <c r="H4">
-        <v>0.228753</v>
+        <v>3.389029</v>
       </c>
       <c r="I4">
-        <v>0.01445944112006324</v>
+        <v>0.2150318133641351</v>
       </c>
       <c r="J4">
-        <v>0.01461430153722548</v>
+        <v>0.2164143620767121</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.041056</v>
+        <v>0.1117445</v>
       </c>
       <c r="N4">
-        <v>0.123168</v>
+        <v>0.223489</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.668814359717139</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5737975973770896</v>
       </c>
       <c r="Q4">
-        <v>0.003130561056</v>
+        <v>0.1262351170301667</v>
       </c>
       <c r="R4">
-        <v>0.028175049504</v>
+        <v>0.757410702181</v>
       </c>
       <c r="S4">
-        <v>0.01445944112006324</v>
+        <v>0.1438163645739493</v>
       </c>
       <c r="T4">
-        <v>0.01461430153722548</v>
+        <v>0.1241780409975129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.16764</v>
+        <v>3.874459333333334</v>
       </c>
       <c r="H5">
-        <v>0.33528</v>
+        <v>11.623378</v>
       </c>
       <c r="I5">
-        <v>0.03178949403112617</v>
+        <v>0.7374962116750235</v>
       </c>
       <c r="J5">
-        <v>0.0214199727190505</v>
+        <v>0.7422379492906344</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.041056</v>
+        <v>0.014278</v>
       </c>
       <c r="N5">
-        <v>0.123168</v>
+        <v>0.042834</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.08545683615785395</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.109974299791266</v>
       </c>
       <c r="Q5">
-        <v>0.006882627840000001</v>
+        <v>0.05531953036133334</v>
       </c>
       <c r="R5">
-        <v>0.04129576704</v>
+        <v>0.497875773252</v>
       </c>
       <c r="S5">
-        <v>0.03178949403112617</v>
+        <v>0.06302409292815046</v>
       </c>
       <c r="T5">
-        <v>0.0214199727190505</v>
+        <v>0.08162709875174275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2020163333333334</v>
+        <v>3.874459333333334</v>
       </c>
       <c r="H6">
-        <v>0.6060490000000001</v>
+        <v>11.623378</v>
       </c>
       <c r="I6">
-        <v>0.03830826188672152</v>
+        <v>0.7374962116750235</v>
       </c>
       <c r="J6">
-        <v>0.03871854284898543</v>
+        <v>0.7422379492906344</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,642 @@
         <v>0.123168</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2457288041250071</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.3162281028316444</v>
       </c>
       <c r="Q6">
-        <v>0.008293982581333334</v>
+        <v>0.1590698023893334</v>
       </c>
       <c r="R6">
-        <v>0.07464584323200001</v>
+        <v>1.431628221504</v>
       </c>
       <c r="S6">
-        <v>0.03830826188672152</v>
+        <v>0.1812240621416267</v>
       </c>
       <c r="T6">
-        <v>0.03871854284898543</v>
+        <v>0.2347164985538276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.874459333333334</v>
+      </c>
+      <c r="H7">
+        <v>11.623378</v>
+      </c>
+      <c r="I7">
+        <v>0.7374962116750235</v>
+      </c>
+      <c r="J7">
+        <v>0.7422379492906344</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1117445</v>
+      </c>
+      <c r="N7">
+        <v>0.223489</v>
+      </c>
+      <c r="O7">
+        <v>0.668814359717139</v>
+      </c>
+      <c r="P7">
+        <v>0.5737975973770896</v>
+      </c>
+      <c r="Q7">
+        <v>0.4329495209736667</v>
+      </c>
+      <c r="R7">
+        <v>2.597697125842</v>
+      </c>
+      <c r="S7">
+        <v>0.4932480566052465</v>
+      </c>
+      <c r="T7">
+        <v>0.425894351985064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1076963333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.323089</v>
+      </c>
+      <c r="I8">
+        <v>0.02049979907165298</v>
+      </c>
+      <c r="J8">
+        <v>0.0206316026888536</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.014278</v>
+      </c>
+      <c r="N8">
+        <v>0.042834</v>
+      </c>
+      <c r="O8">
+        <v>0.08545683615785395</v>
+      </c>
+      <c r="P8">
+        <v>0.109974299791266</v>
+      </c>
+      <c r="Q8">
+        <v>0.001537688247333333</v>
+      </c>
+      <c r="R8">
+        <v>0.013839194226</v>
+      </c>
+      <c r="S8">
+        <v>0.001751847970535175</v>
+      </c>
+      <c r="T8">
+        <v>0.002268946059278276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1076963333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.323089</v>
+      </c>
+      <c r="I9">
+        <v>0.02049979907165298</v>
+      </c>
+      <c r="J9">
+        <v>0.0206316026888536</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.041056</v>
+      </c>
+      <c r="N9">
+        <v>0.123168</v>
+      </c>
+      <c r="O9">
+        <v>0.2457288041250071</v>
+      </c>
+      <c r="P9">
+        <v>0.3162281028316444</v>
+      </c>
+      <c r="Q9">
+        <v>0.004421580661333334</v>
+      </c>
+      <c r="R9">
+        <v>0.039794225952</v>
+      </c>
+      <c r="S9">
+        <v>0.005037391110680219</v>
+      </c>
+      <c r="T9">
+        <v>0.006524292576672426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1076963333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.323089</v>
+      </c>
+      <c r="I10">
+        <v>0.02049979907165298</v>
+      </c>
+      <c r="J10">
+        <v>0.0206316026888536</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1117445</v>
+      </c>
+      <c r="N10">
+        <v>0.223489</v>
+      </c>
+      <c r="O10">
+        <v>0.668814359717139</v>
+      </c>
+      <c r="P10">
+        <v>0.5737975973770896</v>
+      </c>
+      <c r="Q10">
+        <v>0.01203447292016667</v>
+      </c>
+      <c r="R10">
+        <v>0.072206837521</v>
+      </c>
+      <c r="S10">
+        <v>0.01371055999043759</v>
+      </c>
+      <c r="T10">
+        <v>0.0118383640529029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1006855</v>
+      </c>
+      <c r="H11">
+        <v>0.201371</v>
+      </c>
+      <c r="I11">
+        <v>0.01916529983467945</v>
+      </c>
+      <c r="J11">
+        <v>0.01285901551912054</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.014278</v>
+      </c>
+      <c r="N11">
+        <v>0.042834</v>
+      </c>
+      <c r="O11">
+        <v>0.08545683615785395</v>
+      </c>
+      <c r="P11">
+        <v>0.109974299791266</v>
+      </c>
+      <c r="Q11">
+        <v>0.001437587569</v>
+      </c>
+      <c r="R11">
+        <v>0.008625525413999999</v>
+      </c>
+      <c r="S11">
+        <v>0.001637805887888347</v>
+      </c>
+      <c r="T11">
+        <v>0.001414161227720305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1006855</v>
+      </c>
+      <c r="H12">
+        <v>0.201371</v>
+      </c>
+      <c r="I12">
+        <v>0.01916529983467945</v>
+      </c>
+      <c r="J12">
+        <v>0.01285901551912054</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.041056</v>
+      </c>
+      <c r="N12">
+        <v>0.123168</v>
+      </c>
+      <c r="O12">
+        <v>0.2457288041250071</v>
+      </c>
+      <c r="P12">
+        <v>0.3162281028316444</v>
+      </c>
+      <c r="Q12">
+        <v>0.004133743888</v>
+      </c>
+      <c r="R12">
+        <v>0.024802463328</v>
+      </c>
+      <c r="S12">
+        <v>0.004709466209072978</v>
+      </c>
+      <c r="T12">
+        <v>0.004066382081894163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1006855</v>
+      </c>
+      <c r="H13">
+        <v>0.201371</v>
+      </c>
+      <c r="I13">
+        <v>0.01916529983467945</v>
+      </c>
+      <c r="J13">
+        <v>0.01285901551912054</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1117445</v>
+      </c>
+      <c r="N13">
+        <v>0.223489</v>
+      </c>
+      <c r="O13">
+        <v>0.668814359717139</v>
+      </c>
+      <c r="P13">
+        <v>0.5737975973770896</v>
+      </c>
+      <c r="Q13">
+        <v>0.01125105085475</v>
+      </c>
+      <c r="R13">
+        <v>0.04500420341899999</v>
+      </c>
+      <c r="S13">
+        <v>0.01281802773771812</v>
+      </c>
+      <c r="T13">
+        <v>0.007378472209506077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.04101366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.123041</v>
+      </c>
+      <c r="I14">
+        <v>0.007806876054508988</v>
+      </c>
+      <c r="J14">
+        <v>0.007857070424679379</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.014278</v>
+      </c>
+      <c r="N14">
+        <v>0.042834</v>
+      </c>
+      <c r="O14">
+        <v>0.08545683615785395</v>
+      </c>
+      <c r="P14">
+        <v>0.109974299791266</v>
+      </c>
+      <c r="Q14">
+        <v>0.0005855931326666666</v>
+      </c>
+      <c r="R14">
+        <v>0.005270338194</v>
+      </c>
+      <c r="S14">
+        <v>0.0006671509278948479</v>
+      </c>
+      <c r="T14">
+        <v>0.00086407581836478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.04101366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.123041</v>
+      </c>
+      <c r="I15">
+        <v>0.007806876054508988</v>
+      </c>
+      <c r="J15">
+        <v>0.007857070424679379</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.041056</v>
+      </c>
+      <c r="N15">
+        <v>0.123168</v>
+      </c>
+      <c r="O15">
+        <v>0.2457288041250071</v>
+      </c>
+      <c r="P15">
+        <v>0.3162281028316444</v>
+      </c>
+      <c r="Q15">
+        <v>0.001683857098666667</v>
+      </c>
+      <c r="R15">
+        <v>0.015154713888</v>
+      </c>
+      <c r="S15">
+        <v>0.001918374316826648</v>
+      </c>
+      <c r="T15">
+        <v>0.002484626474210982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.04101366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.123041</v>
+      </c>
+      <c r="I16">
+        <v>0.007806876054508988</v>
+      </c>
+      <c r="J16">
+        <v>0.007857070424679379</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1117445</v>
+      </c>
+      <c r="N16">
+        <v>0.223489</v>
+      </c>
+      <c r="O16">
+        <v>0.668814359717139</v>
+      </c>
+      <c r="P16">
+        <v>0.5737975973770896</v>
+      </c>
+      <c r="Q16">
+        <v>0.004583051674833334</v>
+      </c>
+      <c r="R16">
+        <v>0.027498310049</v>
+      </c>
+      <c r="S16">
+        <v>0.005221350809787494</v>
+      </c>
+      <c r="T16">
+        <v>0.004508368132103617</v>
       </c>
     </row>
   </sheetData>
